--- a/FCAProdAutomation/src/main/java/com/fca/prod/testData/JeepProdTestData.xlsx
+++ b/FCAProdAutomation/src/main/java/com/fca/prod/testData/JeepProdTestData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Brochure" sheetId="1" r:id="rId1"/>
+    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="TestDrive" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,6 +59,27 @@
   </si>
   <si>
     <t>MobileNo</t>
+  </si>
+  <si>
+    <t>ConfirmEmail</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>jack@jill.com</t>
+  </si>
+  <si>
+    <t>3809839488</t>
   </si>
 </sst>
 </file>
@@ -101,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,4 +482,193 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>100038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>100038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>100038</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="jack@jill.com"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>